--- a/datos_fbref/RESUMEN_STATS_Eredivisie.xlsx
+++ b/datos_fbref/RESUMEN_STATS_Eredivisie.xlsx
@@ -675,31 +675,31 @@
         <v>24.6</v>
       </c>
       <c r="D4" t="n">
-        <v>45.3</v>
+        <v>45.7</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G4" t="n">
-        <v>2070</v>
+        <v>2160</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -708,25 +708,25 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="R4" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -809,58 +809,58 @@
         <v>27.3</v>
       </c>
       <c r="D6" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G6" t="n">
-        <v>2070</v>
+        <v>2160</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U6" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="7">
